--- a/simulations/raw_inclusion_exclusion/Appenzeller-Herzog_2019 IEC/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Appenzeller-Herzog_2019 IEC/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>293</v>
       </c>
       <c r="C2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D2">
-        <v>307</v>
+        <v>310.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>43</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>42.5</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -439,13 +439,13 @@
         <v>497</v>
       </c>
       <c r="B4">
-        <v>1690</v>
+        <v>1673</v>
       </c>
       <c r="C4">
-        <v>1709</v>
+        <v>1719</v>
       </c>
       <c r="D4">
-        <v>1699.5</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -470,10 +470,10 @@
         <v>224</v>
       </c>
       <c r="C6">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="D6">
-        <v>230.5</v>
+        <v>238.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -498,10 +498,10 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="D8">
-        <v>70</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>44</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,10 +526,10 @@
         <v>220</v>
       </c>
       <c r="C10">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D10">
-        <v>236</v>
+        <v>238.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,10 +540,10 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D11">
-        <v>71</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,10 +554,10 @@
         <v>34</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,10 +568,10 @@
         <v>133</v>
       </c>
       <c r="C13">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D13">
-        <v>137.5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,10 +582,10 @@
         <v>101</v>
       </c>
       <c r="C14">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D14">
-        <v>93</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -621,10 +621,10 @@
         <v>1888</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -635,10 +635,10 @@
         <v>92</v>
       </c>
       <c r="C18">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D18">
-        <v>124</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -649,10 +649,10 @@
         <v>115</v>
       </c>
       <c r="C19">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D19">
-        <v>109.5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -663,10 +663,10 @@
         <v>126</v>
       </c>
       <c r="C20">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D20">
-        <v>139.5</v>
+        <v>138.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -691,10 +691,10 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -705,10 +705,10 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>31.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -719,10 +719,10 @@
         <v>245</v>
       </c>
       <c r="C24">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D24">
-        <v>243.5</v>
+        <v>239.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -733,10 +733,10 @@
         <v>46</v>
       </c>
       <c r="C25">
+        <v>54</v>
+      </c>
+      <c r="D25">
         <v>50</v>
-      </c>
-      <c r="D25">
-        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -761,10 +761,10 @@
         <v>478</v>
       </c>
       <c r="C27">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="D27">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,10 +772,10 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>170.24</v>
+        <v>169.56</v>
       </c>
       <c r="C28">
-        <v>180.7692307692308</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/simulations/raw_inclusion_exclusion/Appenzeller-Herzog_2019 IEC/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Appenzeller-Herzog_2019 IEC/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>293</v>
       </c>
       <c r="C2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D2">
-        <v>310.5</v>
+        <v>313.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>43</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="D3">
-        <v>43.5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>1673</v>
       </c>
       <c r="C4">
-        <v>1719</v>
+        <v>1755</v>
       </c>
       <c r="D4">
-        <v>1696</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>31</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>224</v>
       </c>
       <c r="C6">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="D6">
-        <v>238.5</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>87</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D8">
-        <v>61.5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>44</v>
       </c>
       <c r="C9">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D9">
-        <v>46.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,10 +526,10 @@
         <v>220</v>
       </c>
       <c r="C10">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="D10">
-        <v>238.5</v>
+        <v>250.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,10 +540,10 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="D11">
-        <v>62.5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,10 +554,10 @@
         <v>34</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>35.5</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,10 +568,10 @@
         <v>133</v>
       </c>
       <c r="C13">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="D13">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,10 +582,10 @@
         <v>101</v>
       </c>
       <c r="C14">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D14">
-        <v>103.5</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,10 +596,10 @@
         <v>32</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,10 +610,10 @@
         <v>86</v>
       </c>
       <c r="C16">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D16">
-        <v>82.5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -621,10 +621,10 @@
         <v>1888</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -635,10 +635,10 @@
         <v>92</v>
       </c>
       <c r="C18">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D18">
-        <v>119.5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -649,10 +649,10 @@
         <v>115</v>
       </c>
       <c r="C19">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D19">
-        <v>118</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -663,10 +663,10 @@
         <v>126</v>
       </c>
       <c r="C20">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D20">
-        <v>138.5</v>
+        <v>144.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -677,10 +677,10 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D21">
-        <v>24.5</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -691,10 +691,10 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -705,10 +705,10 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D23">
-        <v>32.5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -719,10 +719,10 @@
         <v>245</v>
       </c>
       <c r="C24">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D24">
-        <v>239.5</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -733,10 +733,10 @@
         <v>46</v>
       </c>
       <c r="C25">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -747,10 +747,10 @@
         <v>66</v>
       </c>
       <c r="C26">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D26">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -761,10 +761,10 @@
         <v>478</v>
       </c>
       <c r="C27">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="D27">
-        <v>503</v>
+        <v>506.5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -775,7 +775,7 @@
         <v>169.56</v>
       </c>
       <c r="C28">
-        <v>184</v>
+        <v>201.6923076923077</v>
       </c>
     </row>
   </sheetData>
